--- a/localization/Korean (ko-KR) translation.xlsx
+++ b/localization/Korean (ko-KR) translation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11835"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6735"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="ko-KR" sheetId="1" r:id="rId4"/>
@@ -21,92 +21,515 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="445">
   <x:si>
+    <x:t>"기본 기술 통계, FFT(Fast Fourier Transform), 프랙탈 차원(fractal dimension), 미분, 적분, 그리고 신호(elux file 및 generic file)에 대한 엔트로피를 특징으로 하는 분석 도구입니다.
+상업적 사용은 허용되지 않습니다. 문의 사항은 저자에게 문의해주세요.
+이 소프트웨어가 유용하다고 생각되신다면 지원을 생각해 주세요!"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발자{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세기(dB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센서의 숫자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전 {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 측정 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exit?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>English</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;Export</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Average</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minimum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 복사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ko-KR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seconds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Export</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Help</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Window</x:t>
+  </x:si>
+  <x:si>
+    <x:t>샘플링 주파수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>십자형 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박스 플롯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종료 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복사{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프랙탈 변수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maximum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>About</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open</x:t>
+  </x:si>
+  <x:si>
+    <x:t>File</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분,분,분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔트로피 샘플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미분 알고리즘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일,일,일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초,초,초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">도함수
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적분 알고리즘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;Accept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PNG Files (*.png)|*.png;*.png|JPG Files (*.jpg, *.jpeg)|*.jpg;*.jpeg|BMP Files (*.bmp)|*.bmp;*.bmp|All files (*.*)|*.*</x:t>
+  </x:si>
+  <x:si>
     <x:t>Analysis tool featuring basic descriptive statistics, FFT (fast Fourier transform), fractal dimension, differentiation, integration, and entropy for signals (elux files as well as generic ones).
 No commercial use allowed whatsoever. Contact the author for any inquiries.
 If you find this software useful, please consider supporting it!</x:t>
   </x:si>
   <x:si>
+    <x:t>Algorithms to be displayed as options in a ComboBox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Are you sure you want to exit
+the application?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설정 파일을 로드하는 중 오류가 발생했습니다.
+{0}
+대신 기본값이 사용됩니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot either FFT power spectra(dB) or magnitude</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unexpected error in 'InitializeDataArrays'.
+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unexpected error while computing the FFT.
+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Computation of the Hausdorff-Besicovitch fractal
+dimension has been stopped.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tooltip in the lower right corner button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unexpected error while computing the fractal dimension.
+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Compute the cumulative fractal dimension (CPU intensive)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Do you want to reset all fields
+to their default values?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>An unexpected error happened while saving data file.
+Please try again later or contact the software engineer.
+{0}</x:t>
+  </x:si>
+  <x:si>
     <x:t>An unexpected error happened while opening data file.
 Please try again later or contact the software engineer.
 {0}</x:t>
   </x:si>
   <x:si>
-    <x:t>An unexpected error happened while saving data file.
-Please try again later or contact the software engineer.
-{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"기본 기술 통계, FFT(Fast Fourier Transform), 프랙탈 차원(fractal dimension), 미분, 적분, 그리고 신호(elux file 및 generic file)에 대한 엔트로피를 특징으로 하는 분석 도구입니다.
-상업적 사용은 허용되지 않습니다. 문의 사항은 저자에게 문의해주세요.
-이 소프트웨어가 유용하다고 생각되신다면 지원을 생각해 주세요!"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unexpected error while computing the fractal dimension.
-{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Compute the cumulative fractal dimension (CPU intensive)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Do you want to reset all fields
-to their default values?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Computation of the Hausdorff-Besicovitch fractal
-dimension has been stopped.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Algorithms to be displayed as options in a ComboBox</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PNG Files (*.png)|*.png;*.png|JPG Files (*.jpg, *.jpeg)|*.jpg;*.jpeg|BMP Files (*.bmp)|*.bmp;*.bmp|All files (*.*)|*.*</x:t>
-  </x:si>
-  <x:si>
     <x:t>Error loading settings file.
 {0}
 Default values will be used instead.</x:t>
   </x:si>
   <x:si>
+    <x:t>Export data and data analysis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strReadNotimplementedErrorTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Export numerical integration?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Finite difference algorithms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFractalDisributionYLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxTaskDerivativeCancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cumulative fractal dimension</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fractal dimension distribution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Section '{0}' is mis-formatted.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFractalDisributionXLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strDifferentiationAlgorithms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invariant culture formatting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxTaskFractalCancelTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorDescriptiveStats</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Numeric data-formatting string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFractalDistributionTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strReadDataErrorCultureTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To be displayed in About window</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Compute numerical integration?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxTaskEntropyCancelTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorDerivativeTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Backward one-point difference, Forward one-point difference, Central three-point difference, Central five-point difference, Central seven-point difference, Central nine-point difference, Savitzky–Golay linear three point, Savitzky–Golay linear five point, Savitzky–Golay linear seven point, Savitzky–Golay linear nine point, Savitzky–Golay cubic five point, Savitzky–Golay cubic seven point, Savitzky–Golay cubic nine point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도움</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추출</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적분값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>and</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그리고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대값</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> - </x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">: </x:t>
+  </x:si>
+  <x:si>
+    <x:t>The culture identifier string name is not valid.
+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unexpected error while computing entropy values.
+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>There is no data available to be saved.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>milliseconds, millisecond, milliseconds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entropy computation has been stopped.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unable to read data from a {0} file.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In "settings" form, tab "Derivative"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column text header in exported files</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In "settings" form, tab "Integration"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Remember open/save dialog previous path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Compute the absolute-value integral?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Missing column headers (series names).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxInitArray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFFTYLabelPow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error saving data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select data series</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strAboutDescription</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Statistics error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hours, hour, hours</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotBoxPlotTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strLblDataFormat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotWindowYLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In plot derivative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open in new window</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotWindowXLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxOKSaveData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Array index start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quartile 2 (50%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolTipExport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotAppliedTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strTabDerivative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strSaveDlgFilter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select FFT window</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMenuCrossHair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number of sensors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorFFT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFrmTitleUnion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strOpenDlgFilter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strStatusTipEntropy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotWindowTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error opening data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileDlgFilter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Culture name error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strGrpAlgorithms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI and data format</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFFTYLabelMag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxExitTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strStatusTipFractal</x:t>
+  </x:si>
+  <x:si>
     <x:t>열 이름(시리즈 이름)이 없습니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>적분값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Remember open/save dialog previous path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Compute the absolute-value integral?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column text header in exported files</x:t>
-  </x:si>
-  <x:si>
-    <x:t>There is no data available to be saved.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In "settings" form, tab "Integration"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>milliseconds, millisecond, milliseconds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entropy computation has been stopped.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In "settings" form, tab "Derivative"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Missing column headers (series names).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unable to read data from a {0} file.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ErgoLux files (*.elux)|*.elux|SignalAnalysis files (*.sig)|*.sig|Text files (*.txt)|*.txt|Binary files (*.bin)|*.bin|All files (*.*)|*.*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text file (*.txt)|*.txt|SignalAnalysis file (*.sig)|*.sig|Binary file (*.bin)|*.bin|Results file (*.results)|*.results|All files (*.*)|*.*</x:t>
+    <x:t>Unexpected error while computing descriptive statistics values.
+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Numerical differentiation has been stopped.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data has been successfully saved to disk.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Compute the approximate and sample entropy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후방 1점차, 전방 1점차, 중앙 3점차, 중앙 5점차, 중앙 7점차, 중앙 9점차, 사비츠키-골레이 선형 3점차, 사비츠키-골레이 선형 5점차, 사비츠키-골레이 선형 7점차, 사비츠키-골레이 선형 9점차, 사비츠키-골레이 큐빅 5점차, 사비츠키-골레이 큐빅 7점차, 사비츠키-골레이 큐빅 9점차, 사비츠키-골레이 큐빅 9점차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Left-point rule, Mid-point rule, Right-point rule, Trapezoid rule, Simpson's 1/3 rule, Simpson's 3/8 rule, Simpson's composite rule, Romberg's method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxTaskDerivativeCancelTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorDescriptiveStatsTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings for plots, data, and UI</x:t>
   </x:si>
   <x:si>
     <x:t>Unable to read data from file.
@@ -116,586 +539,218 @@
     <x:t>Compute numerical differentiation?</x:t>
   </x:si>
   <x:si>
-    <x:t>strMsgBoxErrorDescriptiveStatsTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings for plots, data, and UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxTaskDerivativeCancelTitle</x:t>
-  </x:si>
-  <x:si>
     <x:t>Entropy (approximate and sample)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The culture identifier string name is not valid.
-{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unexpected error while computing entropy values.
-{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상적인 엔트로피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unexpected error in 'InitializeDataArrays'.
-{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설정 파일을 로드하는 중 오류가 발생했습니다.
-{0}
-대신 기본값이 사용됩니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot either FFT power spectra(dB) or magnitude</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unexpected error while computing the FFT.
-{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Are you sure you want to exit
-the application?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그리고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>센서의 숫자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strBtnExport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reset settings?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkEntropy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strBtnCancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkDlgPath</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strBtnAccept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strLblSeries</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ideal entropy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strBtnSettings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Signal analysis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shannon entropy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ErgoLux data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strLblWindow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkCrossHair</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFrmLanguage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sample entropy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strGrpCulture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data-file path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select series</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abscissa axis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolTipOpen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strOpenDlgTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolTipExit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Copyright {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxExit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strRadPoints</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User interface</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fractal error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input signal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amplitude / sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Frequency (Hz)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not implemented</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Integral value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dimension (H)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFFTTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strSaveDlgTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time (seconds)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Open data file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entropy error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFrmSettings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date and time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show crosshair</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(cumulative)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select culture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strAboutVersion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다음과 같이 이미지를 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkBoxplot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shannon 엔트로피</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detach legend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strRadRoundDown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shannon / Ideal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Differentiation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수치 적분을 계산할까요?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파생 적분을 추출할까요?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파생 데이터를 추출할까요?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxNoData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터에 맞게 확대/축소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔트로피(대략 및 표본)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수치 미분을 계산할까요?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설정을 초기화 할까요??</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strRadRoundUp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolTipAbout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Save data file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windowed signal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strRadSeconds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>days, day, days</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeader33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMenuDetach</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후방 1점차, 전방 1점차, 중앙 3점차, 중앙 5점차, 중앙 7점차, 중앙 9점차, 사비츠키-골레이 선형 3점차, 사비츠키-골레이 선형 5점차, 사비츠키-골레이 선형 7점차, 사비츠키-골레이 선형 9점차, 사비츠키-골레이 큐빅 5점차, 사비츠키-골레이 큐빅 7점차, 사비츠키-골레이 큐빅 9점차, 사비츠키-골레이 큐빅 9점차</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>and</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도움</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> - </x:t>
-  </x:si>
-  <x:si>
-    <x:t>기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추출</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>오류</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">: </x:t>
-  </x:si>
-  <x:si>
-    <x:t>설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tooltip in the lower right corner button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Compute the approximate and sample entropy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Numerical differentiation has been stopped.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data has been successfully saved to disk.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unexpected error while computing descriptive statistics values.
-{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Left-point rule, Mid-point rule, Right-point rule, Trapezoid rule, Simpson's 1/3 rule, Simpson's 3/8 rule, Simpson's composite rule, Romberg's method</x:t>
   </x:si>
   <x:si>
     <x:t>Unexpected error while computing numerical differentiation.
 {0}</x:t>
   </x:si>
   <x:si>
+    <x:t>ErgoLux files (*.elux)|*.elux|SignalAnalysis files (*.sig)|*.sig|Text files (*.txt)|*.txt|Binary files (*.bin)|*.bin|All files (*.*)|*.*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Text file (*.txt)|*.txt|SignalAnalysis file (*.sig)|*.sig|Binary file (*.bin)|*.bin|Results file (*.results)|*.results|All files (*.*)|*.*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Round down (trim)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strAboutCopyright</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fractal variance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strRadUserCulture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quartile 3 (75%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolTipSettings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>절대값 적분을 계산하시겠습니까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolStripExport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Save image as...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolStripAbout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error parsing data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolTipCboSeries</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolStripOpen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFFTXLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeaderColon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strDlgResetTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strErrorDeserialize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strAboutCompanyName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>About this software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkCumulative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fractal dimension</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strAboutProductName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strLblIntegration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approximate entropy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대화상자 열기/저장 이전 경로 기억</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strReadDataError</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SignalAnalysis data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileDlgFileName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product name: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quartile 1 (25%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Magnitude (RMS²)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strTabIntegration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strStatusTipPower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Developed by {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolStripExit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sampling frequency</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zoom to fit data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이상적인 엔트로피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMenuOpen</x:t>
+  </x:si>
+  <x:si>
     <x:t>Plotting</x:t>
   </x:si>
   <x:si>
     <x:t>strRadTime</x:t>
   </x:si>
   <x:si>
-    <x:t>strPlotFractalDisributionYLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fractal dimension distribution</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Export data and data analysis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Compute numerical integration?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Invariant culture formatting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxTaskDerivativeCancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strReadDataErrorCultureTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To be displayed in About window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorDescriptiveStats</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFractalDistributionTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxTaskEntropyCancelTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strReadNotimplementedErrorTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxTaskFractalCancelTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Export numerical integration?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorDerivativeTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Section '{0}' is mis-formatted.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strDifferentiationAlgorithms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Numeric data-formatting string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cumulative fractal dimension</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Finite difference algorithms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFractalDisributionXLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMenuOpen</x:t>
+    <x:t>Data points</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&amp;Settings</x:t>
   </x:si>
   <x:si>
     <x:t>Data saved</x:t>
   </x:si>
   <x:si>
+    <x:t>strMenuSave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Settings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Box plot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power (dB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entropy bit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>End time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Probability</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{0} window</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strTabPlot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMenuHelp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amplitude</x:t>
+  </x:si>
+  <x:si>
     <x:t>strFrmTitle</x:t>
   </x:si>
   <x:si>
-    <x:t>strMenuSave</x:t>
-  </x:si>
-  <x:si>
-    <x:t>End time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entropy bit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Probability</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Settings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amplitude</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMenuHelp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Box plot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plot.png</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data points</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{0} window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Power (dB)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strTabPlot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&amp;Settings</x:t>
+    <x:t>strDlgReset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strBtnReset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strLblStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FFT error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strLblEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strLblData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Start time</x:t>
   </x:si>
   <x:si>
     <x:t>strBtnData</x:t>
   </x:si>
   <x:si>
-    <x:t>strBtnReset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strLblStart</x:t>
+    <x:t>Derivative</x:t>
   </x:si>
   <x:si>
     <x:t>strChkPower</x:t>
@@ -704,200 +759,406 @@
     <x:t>strGrpAxis</x:t>
   </x:si>
   <x:si>
-    <x:t>FFT error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strLblEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strDlgReset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strLblData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Start time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Derivative</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세기(dB)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발자{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전 {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 측정 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&amp;Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exit?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ko-KR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&amp;Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>English</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minimum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&amp;Export</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Average</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 복사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seconds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Export</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>About</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종료 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>File</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복사{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프랙탈 변수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Help</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maximum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Open</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박스 플롯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>샘플링 주파수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>십자형 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작 시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔트로피 샘플</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&amp;Accept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exit</x:t>
-  </x:si>
-  <x:si>
     <x:t>데이터 포인트 수</x:t>
   </x:si>
   <x:si>
+    <x:t>strGrpFFT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FFT points</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신호 분석 데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔트로피 추정치</x:t>
+  </x:si>
+  <x:si>
     <x:t>누적 프랙탈 차원</x:t>
   </x:si>
   <x:si>
+    <x:t>플롯의 십자형 표시</x:t>
+  </x:si>
+  <x:si>
     <x:t>제품이름 : {0}</x:t>
   </x:si>
   <x:si>
+    <x:t>ErgoLux 데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 창에서 열기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMenuZoom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Copy image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Variance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strTabGUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Integration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version {0}</x:t>
+  </x:si>
+  <x:si>
     <x:t>strMenuCopy</x:t>
   </x:si>
   <x:si>
-    <x:t>플롯의 십자형 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔트로피 추정치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Copy image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Integration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strGrpFFT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ErgoLux 데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FFT points</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Variance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMenuZoom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 창에서 열기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신호 분석 데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strTabGUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Backward one-point difference, Forward one-point difference, Central three-point difference, Central five-point difference, Central seven-point difference, Central nine-point difference, Savitzky–Golay linear three point, Savitzky–Golay linear five point, Savitzky–Golay linear seven point, Savitzky–Golay linear nine point, Savitzky–Golay cubic five point, Savitzky–Golay cubic seven point, Savitzky–Golay cubic nine point</x:t>
-  </x:si>
-  <x:si>
     <x:t>빈 줄이 없습니다.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">도함수
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적분 알고리즘</x:t>
+    <x:t>데이터 시리즈의 숫자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간,시간,시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFFTTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolTipOpen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fractal error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(cumulative)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolTipExit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strRadPoints</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input signal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frequency (Hz)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not implemented</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Integral value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dimension (H)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data-file path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abscissa axis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strSaveDlgTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Time (seconds)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open data file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entropy error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amplitude / sec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strOpenDlgTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxExit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date and time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFrmSettings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select series</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Copyright {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show crosshair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strGrpCulture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxNoData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shannon 엔트로피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수치 적분을 계산할까요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windowed signal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select culture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파생 적분을 추출할까요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strAboutVersion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkBoxplot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터에 맞게 확대/축소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수치 미분을 계산할까요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strRadRoundUp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>days, day, days</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Differentiation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파생 데이터를 추출할까요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detach legend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shannon / Ideal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설정을 초기화 할까요??</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strRadSeconds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strRadRoundDown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔트로피(대략 및 표본)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolTipAbout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Save data file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다음과 같이 이미지를 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밀리초, 밀리초, 밀리초</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMenuDetach</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strBtnExport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strBtnCancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strBtnAccept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkDlgPath</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkEntropy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reset settings?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shannon entropy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strLblSeries</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Signal analysis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strLblWindow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strBtnSettings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFrmLanguage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ErgoLux data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ideal entropy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sample entropy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkCrossHair</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeader24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 필드를 기본값으로 재설정하시겠습니까 ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strReadDataErrorNumberTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorDerivative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Current culture formatting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxTaskEntropyCancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorEntropyTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotDerivativeYLabel2</x:t>
   </x:si>
   <x:si>
     <x:t>Array index end (max {0})</x:t>
@@ -906,485 +1167,224 @@
     <x:t>strErrorDeserializeTitle</x:t>
   </x:si>
   <x:si>
+    <x:t>Tab text in "settings" form</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotDerivativeYLabel1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Numerical differentiation</x:t>
   </x:si>
   <x:si>
-    <x:t>모든 필드를 기본값으로 재설정하시겠습니까 ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Current culture formatting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tab text in "settings" form</x:t>
+    <x:t>Invalid numeric value: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxOKSaveDataTitle</x:t>
   </x:si>
   <x:si>
     <x:t>strMsgBoxErrorSaveDataTitle</x:t>
   </x:si>
   <x:si>
-    <x:t>strReadDataErrorNumberTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxTaskEntropyCancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotDerivativeYLabel1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Invalid numeric value: {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxOKSaveDataTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorDerivative</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorEntropyTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotDerivativeYLabel2</x:t>
+    <x:t>minutes, minute, minutes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show plot's crosshair mode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>controls\FormsPlotCulture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkComputeIntegration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seconds, second, seconds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxTaskFractalCancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Open data file from disk</x:t>
   </x:si>
   <x:si>
     <x:t>strMsgBoxErrorOpenDataTitle</x:t>
   </x:si>
   <x:si>
-    <x:t>Show plot's crosshair mode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxTaskFractalCancel</x:t>
+    <x:t>strIntegrationAlgorithms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorFractalTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strReadNotimplementedError</x:t>
   </x:si>
   <x:si>
     <x:t>Differentiation algorithm</x:t>
   </x:si>
   <x:si>
-    <x:t>strMsgBoxErrorFractalTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>seconds, second, seconds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strIntegrationAlgorithms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Open data file from disk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>minutes, minute, minutes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>controls\FormsPlotCulture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strReadNotimplementedError</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkComputeIntegration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI and data format</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strGrpAlgorithms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFFTYLabelMag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxExitTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strStatusTipFractal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In plot derivative</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strStatusTipEntropy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Culture name error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxOKSaveData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error opening data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Array index start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFrmTitleUnion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strSaveDlgFilter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Open in new window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotWindowTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxInitArray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFFTYLabelPow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select FFT window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quartile 2 (50%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMenuCrossHair</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotWindowYLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strOpenDlgFilter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strLblDataFormat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotWindowXLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error saving data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Statistics error</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number of sensors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorFFT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolTipExport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotAppliedTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strTabDerivative</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileDlgFilter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select data series</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strAboutDescription</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hours, hour, hours</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotBoxPlotTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magnitude (RMS²)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strTabIntegration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quartile 1 (25%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strStatusTipPower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolStripExit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Developed by {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sampling frequency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zoom to fit data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolTipCboSeries</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strAboutCompanyName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeaderColon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strAboutCopyright</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolTipSettings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strLblIntegration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quartile 3 (75%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error parsing data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strReadDataError</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolStripOpen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strAboutProductName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>About this software</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product name: {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolStripAbout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolStripExport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileDlgFileName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFFTXLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>절대값 적분을 계산하시겠습니까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strErrorDeserialize</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Save image as...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkCumulative</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strDlgResetTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fractal dimension</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approximate entropy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대화상자 열기/저장 이전 경로 기억</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fractal variance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SignalAnalysis data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Round down (trim)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strRadUserCulture</x:t>
+    <x:t>strRadCurrentCulture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxNoDataTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkExportDerivative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorFFTTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotOriginalXLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorSaveData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxInitArrayTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strReadDataErrorNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strRadInvariantCulture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number of data points</x:t>
   </x:si>
   <x:si>
     <x:t>Differentiation error</x:t>
   </x:si>
   <x:si>
+    <x:t>strPlotDerivativeTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strReadDataErrorCulture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Export derivative data?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFractalTitle2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorOpenData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strFileHeaderSection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exit the application</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFractalXLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Missing an empty line.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorEntropy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFractalYLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strMsgBoxErrorFractal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fractal dimension (H)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strReadDataErrorTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number of data series</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Numerical integration</x:t>
+  </x:si>
+  <x:si>
     <x:t>Show plots' crosshair</x:t>
   </x:si>
   <x:si>
-    <x:t>strMsgBoxNoDataTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotOriginalXLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkExportDerivative</x:t>
-  </x:si>
-  <x:si>
     <x:t>strChkComputeDerivative</x:t>
   </x:si>
   <x:si>
-    <x:t>Number of data points</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorFFTTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFractalYLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number of data series</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorFractal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Missing an empty line.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorSaveData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxInitArrayTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strReadDataErrorNumber</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorEntropy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strRadCurrentCulture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotDerivativeTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Numerical integration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strReadDataErrorCulture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Export derivative data?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strReadDataErrorTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFractalTitle2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strMsgBoxErrorOpenData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strFileHeaderSection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strRadInvariantCulture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exit the application</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFractalXLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fractal dimension (H)</x:t>
+    <x:t>strToolStripSettings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strStatusTipDerivative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strStatusTipIntegration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkExportIntegration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strStatusTipCrossHair</x:t>
   </x:si>
   <x:si>
     <x:t>Total measuring time</x:t>
   </x:si>
   <x:si>
-    <x:t>strStatusTipDerivative</x:t>
+    <x:t>strPlotBoxplotYLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotOriginalTitle</x:t>
   </x:si>
   <x:si>
     <x:t>Integration algorithm</x:t>
   </x:si>
   <x:si>
+    <x:t>strToolTipUILanguage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotDerivativeXLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User interface language</x:t>
+  </x:si>
+  <x:si>
+    <x:t>localization\strings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotAppliedXLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotOriginalYLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Box plot upper limit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strToolTipCboWindows</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Box plot lower limit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotFractalTitle1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strPlotAppliedYLabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fast Fourier transform</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quadrature algorithms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strChkAbsoluteIntegral</x:t>
+  </x:si>
+  <x:si>
     <x:t>Round up (add zeros)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strStatusTipCrossHair</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkAbsoluteIntegral</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotBoxplotYLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotDerivativeXLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolTipUILanguage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>localization\strings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolStripSettings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User interface language</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotAppliedXLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fast Fourier transform</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quadrature algorithms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strStatusTipIntegration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotOriginalYLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Box plot upper limit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strToolTipCboWindows</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Box plot lower limit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotOriginalTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strChkExportIntegration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotFractalTitle1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>strPlotAppliedYLabel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초,초,초</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 시리즈의 숫자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미분 알고리즘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간,시간,시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일,일,일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분,분,분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밀리초, 밀리초, 밀리초</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="7">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -1420,11 +1420,6 @@
       <x:sz val="11"/>
       <x:color rgb="ffffffff"/>
       <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
     </x:font>
   </x:fonts>
   <x:fills count="6">
@@ -1546,110 +1541,30 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
@@ -2383,7 +2298,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:AH327"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="E62" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="F72" activeCellId="0" sqref="F72:F72"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2411,2886 +2326,2888 @@
   <x:sheetData>
     <x:row r="2" spans="2:6">
       <x:c r="B2" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:6" ht="17.149999999999999">
       <x:c r="B3" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>371</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D3" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>208</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F3" s="7"/>
     </x:row>
     <x:row r="4" spans="2:6" ht="49.149999999999999">
       <x:c r="B4" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C4" s="8" t="s">
-        <x:v>343</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F4" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:6">
       <x:c r="B5" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C5" s="8" t="s">
-        <x:v>267</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>270</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="F5" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:6">
       <x:c r="B6" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C6" s="8" t="s">
-        <x:v>331</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D6" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>111</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="F6" s="7" t="s">
-        <x:v>257</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:6">
       <x:c r="B7" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C7" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>123</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F7" s="7" t="s">
-        <x:v>160</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:6">
       <x:c r="B8" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>206</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>250</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F8" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:6">
       <x:c r="B9" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C9" s="8" t="s">
-        <x:v>197</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>325</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F9" s="7" t="s">
-        <x:v>278</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:6">
       <x:c r="B10" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C10" s="8" t="s">
-        <x:v>200</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>375</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F10" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:6">
       <x:c r="B11" s="3" t="s">
-        <x:v>309</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C11" s="8" t="s">
-        <x:v>277</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>355</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F11" s="7" t="s">
-        <x:v>132</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:6">
       <x:c r="B12" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>357</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>353</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F12" s="7" t="s">
-        <x:v>227</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:6">
       <x:c r="B13" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>359</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>91</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>248</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:6" ht="147.34999999999999">
       <x:c r="B14" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C14" s="8" t="s">
-        <x:v>345</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D14" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F14" s="7" t="s">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="F14" s="7" t="s">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:6">
       <x:c r="B15" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C15" s="8" t="s">
-        <x:v>366</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D15" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>368</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>266</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:6">
       <x:c r="B16" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>119</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>183</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>276</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>228</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:6">
       <x:c r="B17" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>54</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D17" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>262</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>154</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:6">
       <x:c r="B18" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C18" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D18" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E18" s="6" t="s">
-        <x:v>230</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>156</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:6">
       <x:c r="B19" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>214</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D19" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E19" s="6" t="s">
-        <x:v>216</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>236</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:6">
       <x:c r="B20" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C20" s="8" t="s">
-        <x:v>43</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E20" s="6" t="s">
-        <x:v>237</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>161</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:6">
       <x:c r="B21" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C21" s="8" t="s">
-        <x:v>215</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D21" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E21" s="6" t="s">
-        <x:v>233</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>261</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:6">
       <x:c r="B22" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>67</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D22" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E22" s="6" t="s">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>165</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:6">
       <x:c r="B23" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C23" s="8" t="s">
-        <x:v>419</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D23" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E23" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F23" s="7" t="s">
-        <x:v>373</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:6">
       <x:c r="B24" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C24" s="8" t="s">
-        <x:v>121</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D24" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E24" s="6" t="s">
-        <x:v>207</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F24" s="7" t="s">
-        <x:v>255</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:6">
       <x:c r="B25" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C25" s="8" t="s">
-        <x:v>390</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D25" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E25" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F25" s="7" t="s">
-        <x:v>134</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:6">
       <x:c r="B26" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C26" s="8" t="s">
-        <x:v>311</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="D26" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E26" s="6" t="s">
-        <x:v>179</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F26" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:6">
       <x:c r="B27" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C27" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D27" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E27" s="6" t="s">
-        <x:v>386</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="F27" s="7" t="s">
-        <x:v>268</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:6">
       <x:c r="B28" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C28" s="8" t="s">
-        <x:v>376</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D28" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E28" s="6" t="s">
-        <x:v>194</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F28" s="7" t="s">
-        <x:v>265</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:6">
       <x:c r="B29" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C29" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="D29" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E29" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F29" s="7" t="s">
-        <x:v>380</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:6">
       <x:c r="B30" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C30" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D30" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E30" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F30" s="7" t="s">
-        <x:v>133</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:6">
       <x:c r="B31" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C31" s="8" t="s">
-        <x:v>389</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D31" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E31" s="6" t="s">
         <x:v>405</x:v>
       </x:c>
       <x:c r="F31" s="7" t="s">
-        <x:v>130</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:6">
       <x:c r="B32" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C32" s="8" t="s">
-        <x:v>435</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="D32" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E32" s="6" t="s">
-        <x:v>189</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F32" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:6">
       <x:c r="B33" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C33" s="8" t="s">
-        <x:v>218</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D33" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="6" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F33" s="7" t="s">
-        <x:v>226</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="2:6" ht="114.59999999999999">
       <x:c r="B34" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C34" s="8" t="s">
-        <x:v>192</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D34" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E34" s="6" t="s">
-        <x:v>281</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F34" s="7" t="s">
-        <x:v>149</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:6" ht="32.75">
       <x:c r="B35" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C35" s="8" t="s">
-        <x:v>222</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D35" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E35" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F35" s="7" t="s">
-        <x:v>288</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="2:6">
       <x:c r="B36" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C36" s="8" t="s">
-        <x:v>377</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D36" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E36" s="6" t="s">
-        <x:v>46</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F36" s="7" t="s">
-        <x:v>135</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:6" ht="81.849999999999994">
       <x:c r="B37" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C37" s="8" t="s">
-        <x:v>374</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D37" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E37" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="2:6">
       <x:c r="B38" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C38" s="8" t="s">
-        <x:v>286</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D38" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E38" s="6" t="s">
-        <x:v>258</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F38" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:6">
       <x:c r="B39" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C39" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D39" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E39" s="6" t="s">
-        <x:v>70</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>273</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:6">
       <x:c r="B40" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C40" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D40" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E40" s="6" t="s">
-        <x:v>382</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F40" s="7" t="s">
-        <x:v>279</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="2:6">
       <x:c r="B41" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C41" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D41" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E41" s="6" t="s">
-        <x:v>224</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>259</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:6">
       <x:c r="B42" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C42" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D42" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E42" s="6" t="s">
-        <x:v>201</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F42" s="7" t="s">
-        <x:v>245</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="2:6">
       <x:c r="B43" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C43" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="D43" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E43" s="6" t="s">
-        <x:v>414</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="F43" s="7" t="s">
-        <x:v>229</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="2:6">
       <x:c r="B44" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C44" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="D44" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E44" s="6" t="s">
-        <x:v>391</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="F44" s="7" t="s">
-        <x:v>264</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="2:6">
       <x:c r="B45" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C45" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="D45" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E45" s="6" t="s">
-        <x:v>354</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F45" s="7" t="s">
-        <x:v>256</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="2:6">
       <x:c r="B46" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C46" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D46" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E46" s="6" t="s">
-        <x:v>238</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F46" s="7" t="s">
-        <x:v>162</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="2:6">
       <x:c r="B47" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C47" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="D47" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E47" s="6" t="s">
-        <x:v>253</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F47" s="7" t="s">
-        <x:v>155</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="2:6">
       <x:c r="B48" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C48" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="D48" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E48" s="6" t="s">
-        <x:v>235</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F48" s="7" t="s">
-        <x:v>152</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="2:6">
       <x:c r="B49" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C49" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D49" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E49" s="6" t="s">
-        <x:v>378</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F49" s="7" t="s">
-        <x:v>158</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="2:6">
       <x:c r="B50" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C50" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="D50" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E50" s="6" t="s">
-        <x:v>381</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F50" s="7" t="s">
-        <x:v>249</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:6">
       <x:c r="B51" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C51" s="8" t="s">
-        <x:v>76</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="D51" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E51" s="6" t="s">
-        <x:v>379</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F51" s="7" t="s">
-        <x:v>269</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="2:6">
       <x:c r="B52" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C52" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="D52" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E52" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="2:6">
       <x:c r="B53" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C53" s="8" t="s">
-        <x:v>83</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="D53" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E53" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="2:6">
       <x:c r="B54" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C54" s="8" t="s">
-        <x:v>114</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D54" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E54" s="6" t="s">
-        <x:v>202</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>202</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="2:6">
       <x:c r="B55" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C55" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="D55" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E55" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="F55" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="2:6">
       <x:c r="B56" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C56" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D56" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E56" s="6" t="s">
-        <x:v>394</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="F56" s="7" t="s">
-        <x:v>439</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="2:6">
       <x:c r="B57" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C57" s="8" t="s">
-        <x:v>112</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D57" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E57" s="6" t="s">
-        <x:v>338</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="F57" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="2:6">
       <x:c r="B58" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C58" s="8" t="s">
-        <x:v>66</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D58" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E58" s="6" t="s">
-        <x:v>396</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F58" s="7" t="s">
-        <x:v>282</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="2:6">
       <x:c r="B59" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C59" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D59" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E59" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F59" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:6">
       <x:c r="B60" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C60" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D60" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E60" s="6" t="s">
-        <x:v>247</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F60" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="2:6">
       <x:c r="B61" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C61" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="D61" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E61" s="6" t="s">
-        <x:v>146</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="F61" s="7" t="s">
-        <x:v>442</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="2:6">
       <x:c r="B62" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C62" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D62" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E62" s="6" t="s">
-        <x:v>346</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F62" s="7" t="s">
-        <x:v>441</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="2:6">
       <x:c r="B63" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C63" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D63" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E63" s="6" t="s">
-        <x:v>308</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="F63" s="7" t="s">
-        <x:v>443</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="2:6">
       <x:c r="B64" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C64" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D64" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E64" s="6" t="s">
-        <x:v>305</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="F64" s="7" t="s">
-        <x:v>438</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="2:6">
       <x:c r="B65" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C65" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D65" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E65" s="6" t="s">
-        <x:v>151</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F65" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="2:6">
       <x:c r="B66" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C66" s="8" t="s">
-        <x:v>65</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="D66" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E66" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F66" s="7" t="s">
-        <x:v>444</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="2:6" ht="32.75">
       <x:c r="B67" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C67" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D67" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E67" s="6" t="s">
-        <x:v>225</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F67" s="11" t="s">
-        <x:v>283</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="2:6">
       <x:c r="B68" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C68" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D68" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E68" s="6" t="s">
-        <x:v>303</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="F68" s="7" t="s">
-        <x:v>440</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="2:6">
       <x:c r="B69" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C69" s="8" t="s">
-        <x:v>96</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D69" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E69" s="6" t="s">
-        <x:v>416</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="F69" s="7" t="s">
-        <x:v>284</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="2:6">
       <x:c r="B70" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C70" s="8" t="s">
-        <x:v>117</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D70" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E70" s="6" t="s">
-        <x:v>101</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="F70" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="2:6">
       <x:c r="B71" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C71" s="8" t="s">
-        <x:v>143</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D71" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E71" s="6" t="s">
-        <x:v>275</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F71" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="2:6">
       <x:c r="B72" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C72" s="8" t="s">
-        <x:v>147</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D72" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E72" s="6" t="s">
-        <x:v>433</x:v>
-      </x:c>
-      <x:c r="F72" s="7"/>
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="F72" s="7">
+        <x:v>1</x:v>
+      </x:c>
     </x:row>
     <x:row r="73" spans="2:6">
       <x:c r="B73" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C73" s="8" t="s">
-        <x:v>129</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D73" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E73" s="6" t="s">
-        <x:v>431</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="F73" s="7"/>
     </x:row>
     <x:row r="74" spans="2:6">
       <x:c r="B74" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C74" s="8" t="s">
-        <x:v>139</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D74" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E74" s="6" t="s">
-        <x:v>350</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F74" s="7"/>
     </x:row>
     <x:row r="75" spans="2:6">
       <x:c r="B75" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C75" s="8" t="s">
-        <x:v>141</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D75" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E75" s="6" t="s">
-        <x:v>330</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F75" s="7"/>
     </x:row>
     <x:row r="76" spans="2:6">
       <x:c r="B76" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C76" s="8" t="s">
-        <x:v>140</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D76" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E76" s="6" t="s">
-        <x:v>362</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F76" s="7"/>
     </x:row>
     <x:row r="77" spans="2:6">
       <x:c r="B77" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C77" s="8" t="s">
-        <x:v>145</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D77" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E77" s="6" t="s">
-        <x:v>125</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="F77" s="7"/>
     </x:row>
     <x:row r="78" spans="2:6">
       <x:c r="B78" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C78" s="8" t="s">
-        <x:v>358</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D78" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E78" s="6" t="s">
-        <x:v>164</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F78" s="7" t="s">
-        <x:v>157</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="2:6">
       <x:c r="B79" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C79" s="8" t="s">
-        <x:v>409</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="D79" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E79" s="6" t="s">
-        <x:v>191</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F79" s="7"/>
     </x:row>
     <x:row r="80" spans="2:6">
       <x:c r="B80" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C80" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="D80" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E80" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F80" s="7"/>
     </x:row>
     <x:row r="81" spans="2:6">
       <x:c r="B81" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C81" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D81" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E81" s="6" t="s">
-        <x:v>204</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F81" s="7"/>
     </x:row>
     <x:row r="82" spans="2:6">
       <x:c r="B82" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C82" s="8" t="s">
-        <x:v>199</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D82" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E82" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="F82" s="7"/>
     </x:row>
     <x:row r="83" spans="2:6">
       <x:c r="B83" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C83" s="8" t="s">
-        <x:v>323</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D83" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E83" s="6" t="s">
-        <x:v>159</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F83" s="7"/>
     </x:row>
     <x:row r="84" spans="2:6">
       <x:c r="B84" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C84" s="8" t="s">
-        <x:v>313</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D84" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E84" s="6" t="s">
-        <x:v>195</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F84" s="7"/>
     </x:row>
     <x:row r="85" spans="2:6">
       <x:c r="B85" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C85" s="8" t="s">
-        <x:v>219</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D85" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E85" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F85" s="7"/>
     </x:row>
     <x:row r="86" spans="2:6">
       <x:c r="B86" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C86" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D86" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E86" s="6" t="s">
-        <x:v>312</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F86" s="7"/>
     </x:row>
     <x:row r="87" spans="2:6">
       <x:c r="B87" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C87" s="8" t="s">
-        <x:v>272</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D87" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E87" s="6" t="s">
-        <x:v>274</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="F87" s="7"/>
     </x:row>
     <x:row r="88" spans="2:6" ht="49.149999999999999">
       <x:c r="B88" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C88" s="8" t="s">
-        <x:v>306</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D88" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E88" s="6" t="s">
-        <x:v>172</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F88" s="7"/>
     </x:row>
     <x:row r="89" spans="2:6">
       <x:c r="B89" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C89" s="8" t="s">
-        <x:v>223</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D89" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E89" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="F89" s="7"/>
     </x:row>
     <x:row r="90" spans="2:6">
       <x:c r="B90" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C90" s="8" t="s">
-        <x:v>334</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D90" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E90" s="6" t="s">
-        <x:v>193</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F90" s="7"/>
     </x:row>
     <x:row r="91" spans="2:6">
       <x:c r="B91" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C91" s="8" t="s">
-        <x:v>221</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D91" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E91" s="6" t="s">
-        <x:v>285</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="F91" s="7"/>
     </x:row>
     <x:row r="92" spans="2:6">
       <x:c r="B92" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C92" s="8" t="s">
-        <x:v>361</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D92" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E92" s="6" t="s">
-        <x:v>428</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="F92" s="7"/>
     </x:row>
     <x:row r="93" spans="2:6">
       <x:c r="B93" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C93" s="8" t="s">
-        <x:v>61</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D93" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E93" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F93" s="7"/>
     </x:row>
     <x:row r="94" spans="2:6">
       <x:c r="B94" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C94" s="8" t="s">
-        <x:v>217</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D94" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E94" s="6" t="s">
-        <x:v>322</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F94" s="7"/>
     </x:row>
     <x:row r="95" spans="2:6">
       <x:c r="B95" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C95" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D95" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E95" s="6" t="s">
-        <x:v>251</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F95" s="7"/>
     </x:row>
     <x:row r="96" spans="2:6" ht="32.75">
       <x:c r="B96" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C96" s="8" t="s">
-        <x:v>297</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D96" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E96" s="6" t="s">
-        <x:v>173</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F96" s="7"/>
     </x:row>
     <x:row r="97" spans="2:6">
       <x:c r="B97" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C97" s="8" t="s">
-        <x:v>190</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D97" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E97" s="6" t="s">
-        <x:v>385</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="F97" s="7"/>
     </x:row>
     <x:row r="98" spans="2:6" ht="32.75">
       <x:c r="B98" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C98" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D98" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E98" s="6" t="s">
-        <x:v>171</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F98" s="7"/>
     </x:row>
     <x:row r="99" spans="2:6" ht="32.75">
       <x:c r="B99" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C99" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D99" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E99" s="6" t="s">
-        <x:v>337</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F99" s="7"/>
     </x:row>
     <x:row r="100" spans="2:6" ht="32.75">
       <x:c r="B100" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C100" s="8" t="s">
-        <x:v>400</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="D100" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E100" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F100" s="7"/>
     </x:row>
     <x:row r="101" spans="2:6">
       <x:c r="B101" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C101" s="8" t="s">
-        <x:v>298</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D101" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E101" s="6" t="s">
-        <x:v>108</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F101" s="7"/>
     </x:row>
     <x:row r="102" spans="2:6" ht="32.75">
       <x:c r="B102" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C102" s="8" t="s">
-        <x:v>339</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D102" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E102" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F102" s="7"/>
     </x:row>
     <x:row r="103" spans="2:6">
       <x:c r="B103" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C103" s="8" t="s">
-        <x:v>392</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="D103" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E103" s="6" t="s">
-        <x:v>220</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F103" s="7"/>
     </x:row>
     <x:row r="104" spans="2:6" ht="32.75">
       <x:c r="B104" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C104" s="8" t="s">
-        <x:v>395</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D104" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E104" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F104" s="7"/>
     </x:row>
     <x:row r="105" spans="2:6">
       <x:c r="B105" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C105" s="8" t="s">
-        <x:v>304</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="D105" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E105" s="6" t="s">
-        <x:v>95</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F105" s="7"/>
     </x:row>
     <x:row r="106" spans="2:6" ht="49.149999999999999">
       <x:c r="B106" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C106" s="8" t="s">
-        <x:v>408</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="D106" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E106" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F106" s="7"/>
     </x:row>
     <x:row r="107" spans="2:6">
       <x:c r="B107" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C107" s="8" t="s">
-        <x:v>300</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="D107" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E107" s="6" t="s">
-        <x:v>321</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F107" s="7"/>
     </x:row>
     <x:row r="108" spans="2:6" ht="49.149999999999999">
       <x:c r="B108" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C108" s="8" t="s">
         <x:v>397</x:v>
       </x:c>
       <x:c r="D108" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E108" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F108" s="7"/>
     </x:row>
     <x:row r="109" spans="2:6">
       <x:c r="B109" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C109" s="8" t="s">
-        <x:v>291</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D109" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E109" s="6" t="s">
-        <x:v>336</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F109" s="7"/>
     </x:row>
     <x:row r="110" spans="2:6" ht="32.75">
       <x:c r="B110" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C110" s="8" t="s">
-        <x:v>92</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D110" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E110" s="6" t="s">
-        <x:v>38</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F110" s="7"/>
     </x:row>
     <x:row r="111" spans="2:6">
       <x:c r="B111" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C111" s="8" t="s">
-        <x:v>315</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D111" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E111" s="6" t="s">
-        <x:v>231</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F111" s="7"/>
     </x:row>
     <x:row r="112" spans="2:6" ht="32.75">
       <x:c r="B112" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C112" s="8" t="s">
-        <x:v>327</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D112" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E112" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F112" s="7"/>
     </x:row>
     <x:row r="113" spans="2:6">
       <x:c r="B113" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C113" s="8" t="s">
         <x:v>398</x:v>
       </x:c>
       <x:c r="D113" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E113" s="6" t="s">
-        <x:v>258</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F113" s="7"/>
     </x:row>
     <x:row r="114" spans="2:6">
       <x:c r="B114" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C114" s="8" t="s">
-        <x:v>131</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D114" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E114" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F114" s="7"/>
     </x:row>
     <x:row r="115" spans="2:6">
       <x:c r="B115" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C115" s="8" t="s">
-        <x:v>387</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="D115" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E115" s="6" t="s">
-        <x:v>240</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F115" s="7"/>
     </x:row>
     <x:row r="116" spans="2:6">
       <x:c r="B116" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C116" s="8" t="s">
-        <x:v>320</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D116" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E116" s="6" t="s">
-        <x:v>170</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F116" s="7"/>
     </x:row>
     <x:row r="117" spans="2:6">
       <x:c r="B117" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C117" s="8" t="s">
-        <x:v>296</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="D117" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E117" s="6" t="s">
-        <x:v>198</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F117" s="7"/>
     </x:row>
     <x:row r="118" spans="2:6" ht="32.75">
       <x:c r="B118" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C118" s="8" t="s">
-        <x:v>181</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D118" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E118" s="6" t="s">
-        <x:v>169</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F118" s="7"/>
     </x:row>
     <x:row r="119" spans="2:6" ht="32.75">
       <x:c r="B119" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C119" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D119" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E119" s="6" t="s">
-        <x:v>243</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F119" s="7"/>
     </x:row>
     <x:row r="120" spans="2:6">
       <x:c r="B120" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C120" s="8" t="s">
-        <x:v>293</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D120" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E120" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F120" s="7"/>
     </x:row>
     <x:row r="121" spans="2:6" ht="32.75">
       <x:c r="B121" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C121" s="8" t="s">
-        <x:v>186</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D121" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E121" s="6" t="s">
-        <x:v>243</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F121" s="7"/>
     </x:row>
     <x:row r="122" spans="2:6" ht="32.75">
       <x:c r="B122" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C122" s="8" t="s">
-        <x:v>302</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D122" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E122" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F122" s="7"/>
     </x:row>
     <x:row r="123" spans="2:6" ht="32.75">
       <x:c r="B123" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C123" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D123" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E123" s="6" t="s">
-        <x:v>243</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F123" s="7"/>
     </x:row>
     <x:row r="124" spans="2:6" ht="32.75">
       <x:c r="B124" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C124" s="8" t="s">
-        <x:v>333</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D124" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E124" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F124" s="7"/>
     </x:row>
     <x:row r="125" spans="2:6">
       <x:c r="B125" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C125" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D125" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E125" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="F125" s="7"/>
     </x:row>
     <x:row r="126" spans="2:6">
       <x:c r="B126" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C126" s="8" t="s">
-        <x:v>341</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D126" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E126" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F126" s="7"/>
     </x:row>
     <x:row r="127" spans="2:6">
       <x:c r="B127" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C127" s="8" t="s">
-        <x:v>426</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="D127" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E127" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F127" s="7"/>
     </x:row>
     <x:row r="128" spans="2:6">
       <x:c r="B128" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C128" s="8" t="s">
-        <x:v>437</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="D128" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E128" s="6" t="s">
-        <x:v>205</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F128" s="7"/>
     </x:row>
     <x:row r="129" spans="2:6">
       <x:c r="B129" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C129" s="8" t="s">
-        <x:v>347</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D129" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E129" s="6" t="s">
-        <x:v>207</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F129" s="7"/>
     </x:row>
     <x:row r="130" spans="2:6">
       <x:c r="B130" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C130" s="8" t="s">
-        <x:v>420</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="D130" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E130" s="6" t="s">
-        <x:v>205</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F130" s="7"/>
     </x:row>
     <x:row r="131" spans="2:6">
       <x:c r="B131" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C131" s="8" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="D131" s="5" t="s">
-        <x:v>317</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E131" s="6" t="s">
-        <x:v>225</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F131" s="7"/>
     </x:row>
     <x:row r="132" spans="2:6">
       <x:c r="B132" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C132" s="8" t="s">
-        <x:v>421</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="D132" s="5" t="s">
-        <x:v>317</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E132" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F132" s="7"/>
     </x:row>
     <x:row r="133" spans="2:6">
       <x:c r="B133" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C133" s="8" t="s">
-        <x:v>294</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="D133" s="5" t="s">
-        <x:v>317</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E133" s="6" t="s">
-        <x:v>98</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F133" s="7"/>
     </x:row>
     <x:row r="134" spans="2:6">
       <x:c r="B134" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C134" s="8" t="s">
-        <x:v>299</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D134" s="5" t="s">
-        <x:v>317</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E134" s="6" t="s">
-        <x:v>205</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F134" s="7"/>
     </x:row>
     <x:row r="135" spans="2:6">
       <x:c r="B135" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C135" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D135" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E135" s="6" t="s">
-        <x:v>427</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="F135" s="7"/>
     </x:row>
     <x:row r="136" spans="2:6">
       <x:c r="B136" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C136" s="8" t="s">
-        <x:v>372</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D136" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E136" s="6" t="s">
-        <x:v>99</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="F136" s="7"/>
     </x:row>
     <x:row r="137" spans="2:6">
       <x:c r="B137" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C137" s="8" t="s">
-        <x:v>314</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D137" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E137" s="6" t="s">
-        <x:v>348</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F137" s="7"/>
     </x:row>
     <x:row r="138" spans="2:6">
       <x:c r="B138" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C138" s="8" t="s">
-        <x:v>328</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D138" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E138" s="6" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F138" s="7"/>
     </x:row>
     <x:row r="139" spans="2:6" ht="32.75">
       <x:c r="B139" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C139" s="8" t="s">
-        <x:v>196</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D139" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E139" s="6" t="s">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="F139" s="7"/>
     </x:row>
     <x:row r="140" spans="2:6" ht="32.75">
       <x:c r="B140" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C140" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D140" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E140" s="6" t="s">
-        <x:v>203</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F140" s="7"/>
     </x:row>
     <x:row r="141" spans="2:6">
       <x:c r="B141" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C141" s="8" t="s">
-        <x:v>185</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D141" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E141" s="6" t="s">
-        <x:v>177</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F141" s="7"/>
     </x:row>
     <x:row r="142" spans="2:6">
       <x:c r="B142" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C142" s="8" t="s">
-        <x:v>436</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="D142" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E142" s="6" t="s">
-        <x:v>378</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F142" s="7"/>
     </x:row>
     <x:row r="143" spans="2:6">
       <x:c r="B143" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C143" s="8" t="s">
-        <x:v>407</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="D143" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E143" s="6" t="s">
-        <x:v>113</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F143" s="7"/>
     </x:row>
     <x:row r="144" spans="2:6">
       <x:c r="B144" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C144" s="8" t="s">
-        <x:v>412</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="D144" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E144" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F144" s="7"/>
     </x:row>
     <x:row r="145" spans="2:6">
       <x:c r="B145" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C145" s="8" t="s">
-        <x:v>393</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="D145" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E145" s="6" t="s">
-        <x:v>102</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="F145" s="7"/>
     </x:row>
     <x:row r="146" spans="2:6">
       <x:c r="B146" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C146" s="8" t="s">
-        <x:v>434</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="D146" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E146" s="6" t="s">
-        <x:v>97</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F146" s="7"/>
     </x:row>
     <x:row r="147" spans="2:6">
       <x:c r="B147" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C147" s="8" t="s">
-        <x:v>388</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D147" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E147" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F147" s="7"/>
     </x:row>
     <x:row r="148" spans="2:6">
       <x:c r="B148" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C148" s="8" t="s">
-        <x:v>430</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="D148" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E148" s="6" t="s">
-        <x:v>205</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F148" s="7"/>
     </x:row>
     <x:row r="149" spans="2:6">
       <x:c r="B149" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C149" s="8" t="s">
-        <x:v>326</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D149" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E149" s="6" t="s">
-        <x:v>210</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F149" s="7"/>
     </x:row>
     <x:row r="150" spans="2:6">
       <x:c r="B150" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C150" s="8" t="s">
-        <x:v>335</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D150" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E150" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="F150" s="7"/>
     </x:row>
     <x:row r="151" spans="2:6">
       <x:c r="B151" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C151" s="8" t="s">
-        <x:v>332</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D151" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E151" s="6" t="s">
-        <x:v>205</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F151" s="7"/>
     </x:row>
     <x:row r="152" spans="2:6">
       <x:c r="B152" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C152" s="8" t="s">
-        <x:v>401</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D152" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E152" s="6" t="s">
-        <x:v>289</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="F152" s="7"/>
     </x:row>
     <x:row r="153" spans="2:6">
       <x:c r="B153" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C153" s="8" t="s">
-        <x:v>410</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D153" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E153" s="6" t="s">
-        <x:v>180</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F153" s="7"/>
     </x:row>
     <x:row r="154" spans="2:6">
       <x:c r="B154" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C154" s="8" t="s">
-        <x:v>93</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D154" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E154" s="6" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F154" s="7"/>
     </x:row>
     <x:row r="155" spans="2:6">
       <x:c r="B155" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C155" s="8" t="s">
-        <x:v>124</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D155" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E155" s="6" t="s">
-        <x:v>383</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F155" s="7"/>
     </x:row>
     <x:row r="156" spans="2:6">
       <x:c r="B156" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C156" s="8" t="s">
-        <x:v>136</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D156" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E156" s="6" t="s">
-        <x:v>417</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="F156" s="7"/>
     </x:row>
     <x:row r="157" spans="2:6">
       <x:c r="B157" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C157" s="8" t="s">
-        <x:v>144</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D157" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E157" s="6" t="s">
-        <x:v>241</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F157" s="7"/>
     </x:row>
     <x:row r="158" spans="2:6">
       <x:c r="B158" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C158" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D158" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E158" s="6" t="s">
-        <x:v>110</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F158" s="7"/>
     </x:row>
     <x:row r="159" spans="2:6">
       <x:c r="B159" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C159" s="8" t="s">
-        <x:v>384</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D159" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E159" s="6" t="s">
-        <x:v>116</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F159" s="7"/>
     </x:row>
     <x:row r="160" spans="2:6" ht="32.75">
       <x:c r="B160" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C160" s="8" t="s">
-        <x:v>364</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D160" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E160" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F160" s="7"/>
     </x:row>
     <x:row r="161" spans="2:6" ht="32.75">
       <x:c r="B161" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C161" s="8" t="s">
         <x:v>404</x:v>
       </x:c>
       <x:c r="D161" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E161" s="6" t="s">
-        <x:v>31</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F161" s="7"/>
     </x:row>
     <x:row r="162" spans="2:6">
       <x:c r="B162" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C162" s="8" t="s">
-        <x:v>182</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D162" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E162" s="6" t="s">
-        <x:v>319</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F162" s="7"/>
     </x:row>
     <x:row r="163" spans="2:6">
       <x:c r="B163" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C163" s="8" t="s">
         <x:v>399</x:v>
       </x:c>
       <x:c r="D163" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E163" s="6" t="s">
-        <x:v>295</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="F163" s="7"/>
     </x:row>
     <x:row r="164" spans="2:6">
       <x:c r="B164" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C164" s="8" t="s">
-        <x:v>292</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D164" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E164" s="6" t="s">
-        <x:v>363</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F164" s="7"/>
     </x:row>
     <x:row r="165" spans="2:6">
       <x:c r="B165" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C165" s="8" t="s">
-        <x:v>406</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D165" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E165" s="6" t="s">
-        <x:v>258</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F165" s="7"/>
     </x:row>
     <x:row r="166" spans="2:6">
       <x:c r="B166" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C166" s="8" t="s">
-        <x:v>310</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D166" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E166" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F166" s="7"/>
     </x:row>
     <x:row r="167" spans="2:6" ht="32.75">
       <x:c r="B167" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C167" s="8" t="s">
-        <x:v>187</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D167" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E167" s="6" t="s">
-        <x:v>100</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F167" s="7"/>
     </x:row>
     <x:row r="168" spans="2:6" ht="32.75">
       <x:c r="B168" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C168" s="8" t="s">
-        <x:v>324</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D168" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E168" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F168" s="7"/>
     </x:row>
     <x:row r="169" spans="2:6">
       <x:c r="B169" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C169" s="8" t="s">
-        <x:v>105</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D169" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E169" s="6" t="s">
-        <x:v>138</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="F169" s="7"/>
     </x:row>
     <x:row r="170" spans="2:6">
       <x:c r="B170" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C170" s="8" t="s">
-        <x:v>418</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D170" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E170" s="6" t="s">
-        <x:v>301</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="F170" s="7"/>
     </x:row>
     <x:row r="171" spans="2:6">
       <x:c r="B171" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C171" s="8" t="s">
-        <x:v>415</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="D171" s="5" t="s">
-        <x:v>167</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E171" s="6" t="s">
-        <x:v>287</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="F171" s="7"/>
     </x:row>
     <x:row r="172" spans="2:6">
       <x:c r="B172" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C172" s="8" t="s">
-        <x:v>318</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D172" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E172" s="6" t="s">
-        <x:v>168</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F172" s="7"/>
     </x:row>
     <x:row r="173" spans="2:6">
       <x:c r="B173" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C173" s="8" t="s">
-        <x:v>316</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D173" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E173" s="6" t="s">
-        <x:v>5</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F173" s="7"/>
     </x:row>
     <x:row r="174" spans="2:6">
       <x:c r="B174" s="3" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="C174" s="8" t="s">
         <x:v>423</x:v>
       </x:c>
-      <x:c r="C174" s="8" t="s">
-        <x:v>429</x:v>
-      </x:c>
       <x:c r="D174" s="5" t="s">
-        <x:v>167</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E174" s="6" t="s">
-        <x:v>403</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="F174" s="7"/>
     </x:row>
     <x:row r="175" spans="2:6">
       <x:c r="B175" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C175" s="8" t="s">
-        <x:v>351</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D175" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E175" s="6" t="s">
-        <x:v>36</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F175" s="7"/>
     </x:row>
     <x:row r="176" spans="2:6">
       <x:c r="B176" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C176" s="8" t="s">
-        <x:v>342</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D176" s="5" t="s">
-        <x:v>290</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E176" s="6" t="s">
-        <x:v>126</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F176" s="7"/>
     </x:row>
     <x:row r="177" spans="2:6">
       <x:c r="B177" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C177" s="8" t="s">
-        <x:v>280</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D177" s="5" t="s">
-        <x:v>290</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E177" s="6" t="s">
-        <x:v>94</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="F177" s="7"/>
     </x:row>
     <x:row r="178" spans="2:6">
       <x:c r="B178" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C178" s="8" t="s">
-        <x:v>349</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D178" s="5" t="s">
-        <x:v>290</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E178" s="6" t="s">
-        <x:v>271</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F178" s="7"/>
     </x:row>
     <x:row r="179" spans="2:6">
       <x:c r="B179" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C179" s="8" t="s">
-        <x:v>212</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D179" s="5" t="s">
-        <x:v>290</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E179" s="6" t="s">
-        <x:v>174</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F179" s="7"/>
     </x:row>
     <x:row r="180" spans="2:6">
       <x:c r="B180" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C180" s="8" t="s">
-        <x:v>369</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D180" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E180" s="6" t="s">
-        <x:v>244</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F180" s="7"/>
     </x:row>
     <x:row r="181" spans="2:6">
       <x:c r="B181" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C181" s="8" t="s">
-        <x:v>352</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D181" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E181" s="6" t="s">
-        <x:v>263</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F181" s="7"/>
     </x:row>
     <x:row r="182" spans="2:6">
       <x:c r="B182" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C182" s="8" t="s">
-        <x:v>370</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D182" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E182" s="6" t="s">
-        <x:v>242</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F182" s="7"/>
     </x:row>
     <x:row r="183" spans="2:6">
       <x:c r="B183" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C183" s="8" t="s">
-        <x:v>365</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D183" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E183" s="6" t="s">
-        <x:v>254</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F183" s="7"/>
     </x:row>
     <x:row r="184" spans="2:32">
       <x:c r="B184" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C184" s="8" t="s">
-        <x:v>424</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="D184" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E184" s="6" t="s">
-        <x:v>204</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F184" s="7"/>
       <x:c r="H184" s="2"/>
@@ -5305,31 +5222,31 @@
     </x:row>
     <x:row r="185" spans="2:6">
       <x:c r="B185" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C185" s="8" t="s">
-        <x:v>137</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="D185" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E185" s="6" t="s">
-        <x:v>367</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F185" s="7"/>
     </x:row>
     <x:row r="186" spans="2:34">
       <x:c r="B186" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C186" s="8" t="s">
-        <x:v>356</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D186" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E186" s="6" t="s">
-        <x:v>344</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F186" s="7"/>
       <x:c r="H186" s="2"/>
@@ -5349,91 +5266,91 @@
     </x:row>
     <x:row r="187" spans="2:6">
       <x:c r="B187" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C187" s="8" t="s">
-        <x:v>432</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="D187" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E187" s="6" t="s">
-        <x:v>329</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F187" s="7"/>
     </x:row>
     <x:row r="188" spans="2:6">
       <x:c r="B188" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C188" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D188" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E188" s="6" t="s">
-        <x:v>411</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="F188" s="7"/>
     </x:row>
     <x:row r="189" spans="2:6">
       <x:c r="B189" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C189" s="8" t="s">
-        <x:v>340</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D189" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E189" s="6" t="s">
-        <x:v>178</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F189" s="7"/>
     </x:row>
     <x:row r="190" spans="2:6">
       <x:c r="B190" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C190" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D190" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E190" s="6" t="s">
-        <x:v>307</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="F190" s="7"/>
     </x:row>
     <x:row r="191" spans="2:6">
       <x:c r="B191" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C191" s="8" t="s">
-        <x:v>360</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D191" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E191" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F191" s="7"/>
     </x:row>
     <x:row r="192" spans="2:6">
       <x:c r="B192" s="3" t="s">
-        <x:v>423</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C192" s="8" t="s">
-        <x:v>422</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D192" s="5" t="s">
-        <x:v>150</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E192" s="6" t="s">
-        <x:v>425</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="F192" s="7"/>
     </x:row>
